--- a/biology/Médecine/Trouble_oppositionnel_avec_provocation/Trouble_oppositionnel_avec_provocation.xlsx
+++ b/biology/Médecine/Trouble_oppositionnel_avec_provocation/Trouble_oppositionnel_avec_provocation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le trouble oppositionnel avec provocation (TOP), décrit dans le Manuel diagnostique et statistique des troubles mentaux (DSM), est, chez l'enfant et l'adolescent, un ensemble de comportements négatifs, hostiles ou provocateurs envers des détenteurs de l'autorité, allant au-delà d'un comportement infantile habituel. Les individus souffrant de ce trouble ont tendance à se montrer agressifs et colériques[1]. 
-Il est proche du trouble du déficit de l'attention avec ou sans hyperactivité (TDAH) et une hyperactivité motrice est souvent antérieurement observée chez eux[2]. Ils importunent les autres sans but apparent, ils les accusent plutôt que d'admettre leurs erreurs et ils sont facilement irrités. Ils sont rancuniers et enclins à la vengeance. Si ce trouble n'est pas dépisté, ces enfants peuvent causer une détresse considérable dans leur entourage.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le trouble oppositionnel avec provocation (TOP), décrit dans le Manuel diagnostique et statistique des troubles mentaux (DSM), est, chez l'enfant et l'adolescent, un ensemble de comportements négatifs, hostiles ou provocateurs envers des détenteurs de l'autorité, allant au-delà d'un comportement infantile habituel. Les individus souffrant de ce trouble ont tendance à se montrer agressifs et colériques. 
+Il est proche du trouble du déficit de l'attention avec ou sans hyperactivité (TDAH) et une hyperactivité motrice est souvent antérieurement observée chez eux. Ils importunent les autres sans but apparent, ils les accusent plutôt que d'admettre leurs erreurs et ils sont facilement irrités. Ils sont rancuniers et enclins à la vengeance. Si ce trouble n'est pas dépisté, ces enfants peuvent causer une détresse considérable dans leur entourage.
 Le DSM-5 a proposé de le classer dans une nouvelle catégorie diagnostique dite « Troubles disruptifs, du contrôle des impulsions et des conduites ».
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Pour diagnostiquer le trouble, ces comportements doivent durer environ six mois[1],[3]. De plus, selon les critères diagnostiques du DSM-Ill-R, le trouble oppositionnel avec provocation est défini comme une perturbation chez l'individu où il est possible d'observer au moins cinq des signes suivants :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Pour diagnostiquer le trouble, ces comportements doivent durer environ six mois,. De plus, selon les critères diagnostiques du DSM-Ill-R, le trouble oppositionnel avec provocation est défini comme une perturbation chez l'individu où il est possible d'observer au moins cinq des signes suivants :
 se met souvent en colère,
 conteste souvent ce que disent les adultes,
 s'oppose souvent activement aux demandes et aux règlements des adultes,
@@ -524,7 +538,7 @@
 est souvent susceptible ou facilement agacé par autrui,
 est souvent en colère ou rancunier,
 est souvent haineux ou vindicatif,
-jure fréquemment ou utilise des expressions obscènes[4].</t>
+jure fréquemment ou utilise des expressions obscènes.</t>
         </is>
       </c>
     </row>
@@ -552,9 +566,11 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De nombreuses causes ont été identifiés par les médecins et psychologues, souvent difficiles à départager. Ce peut être le contexte familial, le contact avant la naissance avec le tabac ou des boissons alcoolisées[5], une intoxication par le plomb[6] ou des causes génétiques[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreuses causes ont été identifiés par les médecins et psychologues, souvent difficiles à départager. Ce peut être le contexte familial, le contact avant la naissance avec le tabac ou des boissons alcoolisées, une intoxication par le plomb ou des causes génétiques.
 </t>
         </is>
       </c>
@@ -583,9 +599,11 @@
           <t>Pronostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sans traitement, environ 52 % des enfants atteints de trouble oppositionnel avec provocation, continueront à rencontrer les critères du DSM-IV durant plus de trois ans et environ la moitié d'entre eux souffriront de graves troubles de la conduite[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sans traitement, environ 52 % des enfants atteints de trouble oppositionnel avec provocation, continueront à rencontrer les critères du DSM-IV durant plus de trois ans et environ la moitié d'entre eux souffriront de graves troubles de la conduite.
 </t>
         </is>
       </c>
@@ -614,9 +632,11 @@
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La thérapie familiale systémique associée (dans le même temps ou dans un second temps) à une psychothérapie individuelle parait la méthode de choix pour traiter ce trouble qui révèle souvent une dynamique familiale dysfonctionnelle, parfois cachée. La thérapie cognitive et comportementale est décrite comme l'un des principaux traitements efficaces[8],[9]. Il existe aussi des thérapies médicamenteuses.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La thérapie familiale systémique associée (dans le même temps ou dans un second temps) à une psychothérapie individuelle parait la méthode de choix pour traiter ce trouble qui révèle souvent une dynamique familiale dysfonctionnelle, parfois cachée. La thérapie cognitive et comportementale est décrite comme l'un des principaux traitements efficaces,. Il existe aussi des thérapies médicamenteuses.
 </t>
         </is>
       </c>
